--- a/template_excel/template_PH2HD_MVSKID_TCCexp.xlsx
+++ b/template_excel/template_PH2HD_MVSKID_TCCexp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhoaenergy.sharepoint.com/sites/Q1043-HyESScontainerHDevolution/Documenti condivisi/General/08_SW standardization/11_Alarms_Template/Alarms_automation_EH+PH/template_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Commesse\Sviluppo\Alarms_automation_EH+PH\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{B1EB18A0-38DC-4993-8333-D42E50C4416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD288D8-C5CF-4A8B-A31F-EEAE52F3A428}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073F79A-EDF7-4AC4-B5C9-A5C9CD04AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="128">
   <si>
     <t>Errors</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>_DiagnosticDB_wHMI_MValarm1</t>
-  </si>
-  <si>
-    <t>_DiagnosticDB_wHMI__DiagnosticDB_wHMI_MValarm1</t>
   </si>
   <si>
     <t>_DiagnosticDB_wHMI_MValarm2</t>
@@ -587,7 +584,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -614,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,21 +910,21 @@
   <dimension ref="A1:AS80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1886,9 +1883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2023,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2297,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3256,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3393,15 +3390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -3530,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3667,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -3804,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -3941,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3949,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -4078,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -4086,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
         <v>7</v>
@@ -4215,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4223,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
         <v>8</v>
@@ -4352,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2">
         <v>9</v>
@@ -4489,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4497,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -4626,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
@@ -4763,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2">
         <v>12</v>
@@ -4900,15 +4897,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2">
         <v>13</v>
@@ -5037,15 +5034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
         <v>14</v>
@@ -5174,15 +5171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2">
         <v>15</v>
@@ -5311,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -5448,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -5456,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5585,15 +5582,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -5722,15 +5719,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
@@ -5859,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -5996,15 +5993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -6133,15 +6130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2">
         <v>6</v>
@@ -6270,15 +6267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
@@ -6407,15 +6404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2">
         <v>8</v>
@@ -6544,15 +6541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2">
         <v>9</v>
@@ -6681,15 +6678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
@@ -6818,15 +6815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2">
         <v>11</v>
@@ -6955,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2">
         <v>12</v>
@@ -7092,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -7100,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2">
         <v>13</v>
@@ -7229,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="2">
         <v>14</v>
@@ -7366,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -7374,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -7503,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -7640,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -7648,7 +7645,7 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -7777,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
@@ -7914,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -7922,7 +7919,7 @@
         <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
@@ -8051,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -8059,7 +8056,7 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
@@ -8188,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -8196,7 +8193,7 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -8325,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -8333,7 +8330,7 @@
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2">
         <v>6</v>
@@ -8462,15 +8459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2">
         <v>7</v>
@@ -8599,15 +8596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
@@ -8736,15 +8733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2">
         <v>9</v>
@@ -8873,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -8881,7 +8878,7 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2">
         <v>10</v>
@@ -9010,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -9018,7 +9015,7 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2">
         <v>11</v>
@@ -9147,15 +9144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="2">
         <v>12</v>
@@ -9284,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -9292,7 +9289,7 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2">
         <v>13</v>
@@ -9421,15 +9418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2">
         <v>14</v>
@@ -9558,15 +9555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="2">
         <v>15</v>
@@ -9695,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -9703,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -9832,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -9840,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -9969,15 +9966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -10106,15 +10103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
@@ -10243,15 +10240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="2">
         <v>4</v>
@@ -10380,15 +10377,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
@@ -10517,15 +10514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" s="2">
         <v>6</v>
@@ -10654,15 +10651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2">
         <v>7</v>
@@ -10791,15 +10788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73" s="2">
         <v>8</v>
@@ -10928,15 +10925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="2">
         <v>9</v>
@@ -11065,15 +11062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" s="2">
         <v>10</v>
@@ -11202,15 +11199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76" s="2">
         <v>11</v>
@@ -11339,15 +11336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D77" s="2">
         <v>12</v>
@@ -11476,15 +11473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78" s="2">
         <v>13</v>
@@ -11613,15 +11610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" s="2">
         <v>14</v>
@@ -11750,15 +11747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2">
         <v>15</v>
@@ -11899,15 +11896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100260B53F379FC324F8380158707F79306" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb8e72d88c5d94be5f5d36f4a7df34db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="013edbdd-9b27-46fe-aec1-397647bd8b02" xmlns:ns3="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba157fbbfa56f81f5e8d108156af0e8f" ns2:_="" ns3:_="">
     <xsd:import namespace="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
@@ -12156,6 +12144,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12169,14 +12166,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1755C4-7301-4600-AEDE-D9C182A01A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4145454-41DA-49BC-81D8-E24B4A8CCA4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12195,6 +12184,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1755C4-7301-4600-AEDE-D9C182A01A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABDD284-553E-447C-953F-914FE9EAA198}">
   <ds:schemaRefs>

--- a/template_excel/template_PH2HD_MVSKID_TCCexp.xlsx
+++ b/template_excel/template_PH2HD_MVSKID_TCCexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Commesse\Sviluppo\Alarms_automation_EH+PH\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073F79A-EDF7-4AC4-B5C9-A5C9CD04AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC9E11-087D-4386-A068-5239216D30B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
+    <workbookView xWindow="28680" yWindow="2445" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -909,9 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B7427D-ECF8-421C-ACAA-E30BC134C6AE}">
   <dimension ref="A1:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9692,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -9829,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -11896,6 +11894,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="013edbdd-9b27-46fe-aec1-397647bd8b02" xsi:nil="true"/>
+    <b1b820adfd3e4a078472514c1a5cb5ff xmlns="013edbdd-9b27-46fe-aec1-397647bd8b02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100260B53F379FC324F8380158707F79306" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb8e72d88c5d94be5f5d36f4a7df34db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="013edbdd-9b27-46fe-aec1-397647bd8b02" xmlns:ns3="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba157fbbfa56f81f5e8d108156af0e8f" ns2:_="" ns3:_="">
     <xsd:import namespace="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
@@ -12144,28 +12163,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABDD284-553E-447C-953F-914FE9EAA198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd"/>
+    <ds:schemaRef ds:uri="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="013edbdd-9b27-46fe-aec1-397647bd8b02" xsi:nil="true"/>
-    <b1b820adfd3e4a078472514c1a5cb5ff xmlns="013edbdd-9b27-46fe-aec1-397647bd8b02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1755C4-7301-4600-AEDE-D9C182A01A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4145454-41DA-49BC-81D8-E24B4A8CCA4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12182,23 +12199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1755C4-7301-4600-AEDE-D9C182A01A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABDD284-553E-447C-953F-914FE9EAA198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd"/>
-    <ds:schemaRef ds:uri="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>